--- a/analysisForEveryImplementationAverageOf10.xlsx
+++ b/analysisForEveryImplementationAverageOf10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-1080" windowWidth="25120" windowHeight="13660" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="25120" windowHeight="13660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="18">
   <si>
     <t>baseline</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>SAMPLE 1024</t>
+  </si>
+  <si>
+    <t>sequential</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -170,12 +173,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -198,6 +272,41 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -220,6 +329,41 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,6 +686,53 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.0374131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$3:$W$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0015268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1151631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.172165199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,6 +1163,53 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$9:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0016757</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1149758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.962063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1390,6 +1628,53 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.9301266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$15:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0016466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1186348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7397013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1820,6 +2105,53 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$1,Sheet1!$M$7,Sheet1!$M$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$W$3,Sheet1!$W$9,Sheet1!$W$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0015268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0016757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0016466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2238,6 +2570,53 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1139274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$1,Sheet1!$M$7,Sheet1!$M$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$W$4,Sheet1!$W$10,Sheet1!$W$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1151631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1149758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1186348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,6 +3047,53 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Sequential</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$M$1,Sheet1!$M$7,Sheet1!$M$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$W$5,Sheet1!$W$11,Sheet1!$W$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.172165199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.962063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7397013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2844,13 +3270,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.849777448071217</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.091427940061493</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.128971120222417</c:v>
+                  <c:v>0.566320474777448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.731280646476346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85590080802251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2891,13 +3317,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.915521099744246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.099990016357814</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.096820064208763</c:v>
+                  <c:v>0.610134271099744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.737017425295477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.831526300714084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,13 +3364,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.720757566224124</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.109830038315957</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.153928168061554</c:v>
+                  <c:v>0.480337255395457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.743610455723567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.874821360575853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,13 +3411,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.012551931406347</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.214277186187953</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.076005365700372</c:v>
+                  <c:v>0.674798903915849</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.813592334521851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.815746165196918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3032,13 +3458,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.932172356268056</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.16507373575513</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.156868224774242</c:v>
+                  <c:v>0.621231232453106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.780624944077957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.877050289970898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$9:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH$3:$AH$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.666433871671759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67002192232237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.758124625768895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,13 +3689,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.144221655122129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.26272056511829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.055316276107165</c:v>
+                  <c:v>1.221800947867299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.824014579894679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.321267051126515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3263,13 +3736,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.896333104866346</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.898595384835889</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.306526333608952</c:v>
+                  <c:v>0.957105323280786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.009665905746058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.873827115433986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,13 +3783,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.92979025950942</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.015149271267132</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.317172370205372</c:v>
+                  <c:v>0.992830904135561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.270333137846126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.897244070650023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3357,13 +3830,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.276972766903758</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.113305773132919</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.107797984127741</c:v>
+                  <c:v>0.295751778181754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.489855493019358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.436705486383468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3404,13 +3877,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.265156401160916</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.090262269980935</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.991728404646881</c:v>
+                  <c:v>1.350935182199291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.43831979250833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.181399568539677</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$9:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH$9:$AH$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.067800930351112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.236452512064797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.19959371771387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3588,13 +4108,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.700603186778704</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.875327561726626</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.000626225206955</c:v>
+                  <c:v>0.0956847157816441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.000263061154973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.909854215969701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3635,13 +4155,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.700994243851387</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.846448555688092</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.092091308735273</c:v>
+                  <c:v>0.0957381243095529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96726215469861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.084429867686652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3682,13 +4202,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.738627800547704</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.956145173961376</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.157369311959651</c:v>
+                  <c:v>0.100877918481624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.09261577086482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.20902331379824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3729,13 +4249,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.649128852324855</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.927442625001117</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.998019089199197</c:v>
+                  <c:v>0.0886546206361855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.059816507204817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.904878082453919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3776,13 +4296,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.727147716581023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.911255764636075</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.026300570084583</c:v>
+                  <c:v>0.0993100287085957</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.041319296323799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.95885778450665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Baseline</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$15:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH$15:$AH$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.136574765269898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.142729996050743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.908658965613953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,15 +5067,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG103"/>
+  <dimension ref="A1:AO103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+      <selection activeCell="Y15" sqref="Y15:AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4539,6 +5106,9 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
       <c r="M1">
         <v>1</v>
       </c>
@@ -4546,7 +5116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4577,6 +5147,9 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
@@ -4607,6 +5180,9 @@
       <c r="V2" t="s">
         <v>9</v>
       </c>
+      <c r="W2" t="s">
+        <v>17</v>
+      </c>
       <c r="Y2" t="s">
         <v>1</v>
       </c>
@@ -4634,8 +5210,11 @@
       <c r="AG2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AH2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4664,6 +5243,9 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3">
@@ -4709,28 +5291,32 @@
         <f t="shared" si="0"/>
         <v>2.6421000000000001E-3</v>
       </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>1.5267999999999998E-3</v>
+      </c>
       <c r="X3">
         <v>64</v>
       </c>
       <c r="Y3">
-        <f>M3/N3</f>
-        <v>0.8497774480712168</v>
+        <f>W3/N3</f>
+        <v>0.56632047477744807</v>
       </c>
       <c r="Z3">
-        <f>M3/O3</f>
-        <v>0.91552109974424556</v>
+        <f>W3/O3</f>
+        <v>0.61013427109974416</v>
       </c>
       <c r="AA3">
-        <f>M3/P3</f>
-        <v>0.72075756622412379</v>
+        <f>W3/P3</f>
+        <v>0.48033725539545702</v>
       </c>
       <c r="AB3">
-        <f>M3/Q3</f>
-        <v>1.0125519314063467</v>
+        <f>W3/Q3</f>
+        <v>0.67479890391584896</v>
       </c>
       <c r="AC3">
-        <f>M3/R3</f>
-        <v>0.93217235626805561</v>
+        <f>W3/R3</f>
+        <v>0.62123123245310652</v>
       </c>
       <c r="AD3" s="1">
         <f>M3/S3</f>
@@ -4748,8 +5334,12 @@
         <f>M3/V3</f>
         <v>0.86711328110215358</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3">
+        <f>W3/M3</f>
+        <v>0.66643387167175894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4">
         <v>2.2950000000000002E-3</v>
       </c>
@@ -4779,6 +5369,9 @@
       </c>
       <c r="J4">
         <v>2.3730000000000001E-3</v>
+      </c>
+      <c r="K4">
+        <v>1.493E-3</v>
       </c>
       <c r="L4">
         <v>256</v>
@@ -4823,28 +5416,32 @@
         <f t="shared" si="1"/>
         <v>0.15368409999999999</v>
       </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>0.1151631</v>
+      </c>
       <c r="X4">
         <v>256</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y17" si="2">M4/N4</f>
-        <v>1.0914279400614926</v>
+        <f t="shared" ref="Y4:Y5" si="2">W4/N4</f>
+        <v>0.73128064647634572</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z17" si="3">M4/O4</f>
-        <v>1.0999900163578136</v>
+        <f t="shared" ref="Z4:Z5" si="3">W4/O4</f>
+        <v>0.73701742529547742</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA17" si="4">M4/P4</f>
-        <v>1.1098300383159572</v>
+        <f t="shared" ref="AA4:AA5" si="4">W4/P4</f>
+        <v>0.74361045572356721</v>
       </c>
       <c r="AB4">
-        <f t="shared" ref="AB4:AB17" si="5">M4/Q4</f>
-        <v>1.2142771861879533</v>
+        <f t="shared" ref="AB4:AB5" si="5">W4/Q4</f>
+        <v>0.81359233452185087</v>
       </c>
       <c r="AC4">
-        <f t="shared" ref="AC4:AC17" si="6">M4/R4</f>
-        <v>1.1650737357551304</v>
+        <f t="shared" ref="AC4:AC5" si="6">W4/R4</f>
+        <v>0.78062494407795746</v>
       </c>
       <c r="AD4" s="1">
         <f t="shared" ref="AD4:AD17" si="7">M4/S4</f>
@@ -4862,8 +5459,12 @@
         <f t="shared" ref="AG4:AG17" si="10">M4/V4</f>
         <v>1.1183954618597498</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH17" si="11">W4/M4</f>
+        <v>0.67002192232237001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5">
         <v>2.2659999999999998E-3</v>
       </c>
@@ -4894,71 +5495,78 @@
       <c r="J5">
         <v>3.8180000000000002E-3</v>
       </c>
+      <c r="K5">
+        <v>1.5269999999999999E-3</v>
+      </c>
       <c r="L5">
         <v>1024</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:W5" si="11">AVERAGE(A72:A81)</f>
+        <f t="shared" ref="M5:W5" si="12">AVERAGE(A72:A81)</f>
         <v>8.1413595999999977</v>
       </c>
       <c r="N5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.211309</v>
       </c>
       <c r="O5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4226939000000014</v>
       </c>
       <c r="P5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0553435000000011</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5662816000000008</v>
       </c>
       <c r="R5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0374131000000002</v>
       </c>
       <c r="S5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1302224999999995</v>
       </c>
       <c r="T5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7939707999999994</v>
       </c>
       <c r="U5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5346122000000006</v>
       </c>
       <c r="V5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1224186999999999</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="12"/>
+        <v>6.1721651999999994</v>
       </c>
       <c r="X5">
         <v>1024</v>
       </c>
       <c r="Y5">
         <f t="shared" si="2"/>
-        <v>1.1289711202224171</v>
+        <v>0.85590080802251012</v>
       </c>
       <c r="Z5">
         <f t="shared" si="3"/>
-        <v>1.0968200642087633</v>
+        <v>0.83152630071408418</v>
       </c>
       <c r="AA5">
         <f t="shared" si="4"/>
-        <v>1.1539281680615545</v>
+        <v>0.87482136057585269</v>
       </c>
       <c r="AB5">
         <f t="shared" si="5"/>
-        <v>1.0760053657003721</v>
+        <v>0.81574616519691767</v>
       </c>
       <c r="AC5">
         <f t="shared" si="6"/>
-        <v>1.1568682247742423</v>
+        <v>0.8770502899708984</v>
       </c>
       <c r="AD5" s="1">
         <f t="shared" si="7"/>
@@ -4976,8 +5584,12 @@
         <f t="shared" si="10"/>
         <v>1.1430610783946187</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5">
+        <f t="shared" si="11"/>
+        <v>0.75812462576889506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>2.3119999999999998E-3</v>
       </c>
@@ -5007,13 +5619,16 @@
       </c>
       <c r="J6">
         <v>2.3240000000000001E-3</v>
+      </c>
+      <c r="K6">
+        <v>1.474E-3</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>2.2629999999999998E-3</v>
       </c>
@@ -5043,6 +5658,9 @@
       </c>
       <c r="J7">
         <v>2.3319999999999999E-3</v>
+      </c>
+      <c r="K7">
+        <v>1.472E-3</v>
       </c>
       <c r="M7">
         <v>4</v>
@@ -5054,8 +5672,11 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AJ7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>2.2490000000000001E-3</v>
       </c>
@@ -5086,6 +5707,9 @@
       <c r="J8">
         <v>2.4229999999999998E-3</v>
       </c>
+      <c r="K8">
+        <v>1.56E-3</v>
+      </c>
       <c r="M8" t="s">
         <v>0</v>
       </c>
@@ -5143,8 +5767,29 @@
       <c r="AG8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AH8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>2.2650000000000001E-3</v>
       </c>
@@ -5175,71 +5820,78 @@
       <c r="J9">
         <v>3.094E-3</v>
       </c>
+      <c r="K9">
+        <v>1.488E-3</v>
+      </c>
       <c r="L9">
         <v>64</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:W9" si="12">AVERAGE(A15:A24)</f>
+        <f t="shared" ref="M9:W9" si="13">AVERAGE(A15:A24)</f>
         <v>1.5692999999999998E-3</v>
       </c>
       <c r="N9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3714999999999999E-3</v>
       </c>
       <c r="O9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7508000000000003E-3</v>
       </c>
       <c r="P9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6878000000000002E-3</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.6658999999999998E-3</v>
       </c>
       <c r="R9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2403999999999998E-3</v>
       </c>
       <c r="S9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7853000000000001E-3</v>
       </c>
       <c r="T9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.9210000000000002E-3</v>
       </c>
       <c r="U9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5452000000000001E-3</v>
       </c>
       <c r="V9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6736000000000001E-3</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="13"/>
+        <v>1.6757E-3</v>
       </c>
       <c r="X9">
         <v>64</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="2"/>
-        <v>1.1442216551221289</v>
+        <f>W9/N9</f>
+        <v>1.2218009478672986</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="3"/>
-        <v>0.89633310486634654</v>
+        <f>W9/O9</f>
+        <v>0.95710532328078579</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="4"/>
-        <v>0.9297902595094204</v>
+        <f>W9/P9</f>
+        <v>0.99283090413556097</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="5"/>
-        <v>0.27697276690375755</v>
+        <f>W9/Q9</f>
+        <v>0.29575177818175402</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="6"/>
-        <v>1.265156401160916</v>
+        <f>W9/R9</f>
+        <v>1.3509351821992908</v>
       </c>
       <c r="AD9" s="1">
         <f t="shared" si="7"/>
@@ -5257,8 +5909,39 @@
         <f t="shared" si="10"/>
         <v>0.93767925430210308</v>
       </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9">
+        <f t="shared" si="11"/>
+        <v>1.067800930351112</v>
+      </c>
+      <c r="AI9">
+        <v>64</v>
+      </c>
+      <c r="AJ9">
+        <f>Y9/4</f>
+        <v>0.30545023696682466</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" ref="AK9:AN11" si="14">Z9/4</f>
+        <v>0.23927633082019645</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="14"/>
+        <v>0.24820772603389024</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="14"/>
+        <v>7.3937944545438505E-2</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="14"/>
+        <v>0.33773379554982269</v>
+      </c>
+      <c r="AO9">
+        <f>AH3/4</f>
+        <v>0.16660846791793973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>2.2590000000000002E-3</v>
       </c>
@@ -5289,71 +5972,78 @@
       <c r="J10">
         <v>2.4979999999999998E-3</v>
       </c>
+      <c r="K10">
+        <v>1.495E-3</v>
+      </c>
       <c r="L10">
         <v>256</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:W10" si="13">AVERAGE(A49:A58)</f>
+        <f t="shared" ref="M10:W10" si="15">AVERAGE(A49:A58)</f>
         <v>5.1409899999999994E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.0713600000000003E-2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.7211400000000003E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.0642700000000006E-2</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.6177700000000002E-2</v>
       </c>
       <c r="R10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.71537E-2</v>
       </c>
       <c r="S10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.38574E-2</v>
       </c>
       <c r="T10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.4913300000000012E-2</v>
       </c>
       <c r="U10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.5023699999999995E-2</v>
       </c>
       <c r="V10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.4948500000000002E-2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="15"/>
+        <v>0.1149758</v>
       </c>
       <c r="X10">
         <v>256</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
-        <v>1.2627205651182896</v>
+        <f t="shared" ref="Y10:Y11" si="16">W10/N10</f>
+        <v>2.824014579894679</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="3"/>
-        <v>0.89859538483588919</v>
+        <f t="shared" ref="Z10:Z11" si="17">W10/O10</f>
+        <v>2.0096659057460577</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="4"/>
-        <v>1.0151492712671319</v>
+        <f t="shared" ref="AA10:AA11" si="18">W10/P10</f>
+        <v>2.2703331378461256</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="5"/>
-        <v>1.113305773132919</v>
+        <f t="shared" ref="AB10:AB11" si="19">W10/Q10</f>
+        <v>2.4898554930193577</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="6"/>
-        <v>1.0902622699809346</v>
+        <f t="shared" ref="AC10:AC11" si="20">W10/R10</f>
+        <v>2.4383197925083291</v>
       </c>
       <c r="AD10" s="1">
         <f t="shared" si="7"/>
@@ -5371,8 +6061,39 @@
         <f t="shared" si="10"/>
         <v>1.1437511819081836</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10">
+        <f t="shared" si="11"/>
+        <v>2.2364525120647971</v>
+      </c>
+      <c r="AI10">
+        <v>256</v>
+      </c>
+      <c r="AJ10">
+        <f>Y10/4</f>
+        <v>0.70600364497366974</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="14"/>
+        <v>0.50241647643651444</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="14"/>
+        <v>0.56758328446153139</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="14"/>
+        <v>0.62246387325483943</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="14"/>
+        <v>0.60957994812708227</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" ref="AO10:AO11" si="21">AH4/4</f>
+        <v>0.1675054805805925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11">
         <v>2.366E-3</v>
       </c>
@@ -5403,71 +6124,78 @@
       <c r="J11">
         <v>2.5690000000000001E-3</v>
       </c>
+      <c r="K11">
+        <v>1.611E-3</v>
+      </c>
       <c r="L11">
         <v>1024</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:W11" si="14">AVERAGE(A83:A92)</f>
+        <f t="shared" ref="M11:W11" si="22">AVERAGE(A83:A92)</f>
         <v>2.7105291999999999</v>
       </c>
       <c r="N11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.5684520000000002</v>
       </c>
       <c r="O11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.0746073999999997</v>
       </c>
       <c r="P11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.0578393999999998</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.4467721</v>
       </c>
       <c r="R11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.7331365999999999</v>
       </c>
       <c r="S11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.1324331000000001</v>
       </c>
       <c r="T11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.1101874</v>
       </c>
       <c r="U11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.1065562</v>
       </c>
       <c r="V11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.5027853000000002</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="22"/>
+        <v>5.9620630000000006</v>
       </c>
       <c r="X11">
         <v>1024</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
-        <v>1.0553162761071648</v>
+        <f t="shared" si="16"/>
+        <v>2.3212670511265152</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="3"/>
-        <v>1.3065263336089519</v>
+        <f t="shared" si="17"/>
+        <v>2.8738271154339858</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="4"/>
-        <v>1.3171723702053717</v>
+        <f t="shared" si="18"/>
+        <v>2.8972440706500233</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="5"/>
-        <v>1.1077979841277412</v>
+        <f t="shared" si="19"/>
+        <v>2.4367054863834685</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="6"/>
-        <v>0.99172840464688083</v>
+        <f t="shared" si="20"/>
+        <v>2.1813995685396774</v>
       </c>
       <c r="AD11" s="1">
         <f t="shared" si="7"/>
@@ -5485,8 +6213,39 @@
         <f t="shared" si="10"/>
         <v>1.0830050823776214</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11">
+        <f t="shared" si="11"/>
+        <v>2.1995937177138698</v>
+      </c>
+      <c r="AI11">
+        <v>1024</v>
+      </c>
+      <c r="AJ11">
+        <f>Y11/4</f>
+        <v>0.5803167627816288</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="14"/>
+        <v>0.71845677885849646</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="14"/>
+        <v>0.72431101766250583</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="14"/>
+        <v>0.60917637159586713</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="14"/>
+        <v>0.54534989213491936</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="21"/>
+        <v>0.18953115644222376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12">
         <v>2.2420000000000001E-3</v>
       </c>
@@ -5516,13 +6275,16 @@
       </c>
       <c r="J12">
         <v>2.5249999999999999E-3</v>
+      </c>
+      <c r="K12">
+        <v>1.477E-3</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:41">
       <c r="A13">
         <v>2.3930000000000002E-3</v>
       </c>
@@ -5552,6 +6314,9 @@
       </c>
       <c r="J13">
         <v>2.4650000000000002E-3</v>
+      </c>
+      <c r="K13">
+        <v>1.671E-3</v>
       </c>
       <c r="M13">
         <v>16</v>
@@ -5563,8 +6328,11 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AJ13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5595,6 +6363,9 @@
       <c r="J14" t="s">
         <v>11</v>
       </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
       <c r="M14" t="s">
         <v>0</v>
       </c>
@@ -5652,8 +6423,26 @@
       <c r="AG14" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AH14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15">
         <v>1.3489999999999999E-3</v>
       </c>
@@ -5684,71 +6473,78 @@
       <c r="J15">
         <v>1.7359999999999999E-3</v>
       </c>
+      <c r="K15">
+        <v>1.645E-3</v>
+      </c>
       <c r="L15">
         <v>64</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15:W15" si="15">AVERAGE(A26:A35)</f>
+        <f t="shared" ref="M15:W15" si="23">AVERAGE(A26:A35)</f>
         <v>1.20564E-2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.7208599999999998E-2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.7198999999999999E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.6322699999999999E-2</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.8573199999999995E-2</v>
       </c>
       <c r="R15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.6580400000000002E-2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.6981299999999998E-2</v>
       </c>
       <c r="T15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.6631600000000003E-2</v>
       </c>
       <c r="U15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.7045500000000002E-2</v>
       </c>
       <c r="V15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.7105500000000003E-2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="23"/>
+        <v>1.6466000000000002E-3</v>
       </c>
       <c r="X15">
         <v>64</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
-        <v>0.70060318677870381</v>
+        <f>W15/N15</f>
+        <v>9.5684715781644086E-2</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="3"/>
-        <v>0.70099424385138676</v>
+        <f>W15/O15</f>
+        <v>9.5738124309552905E-2</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="4"/>
-        <v>0.73862780054770361</v>
+        <f>W15/P15</f>
+        <v>0.10087791848162377</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="5"/>
-        <v>0.6491288523248554</v>
+        <f>W15/Q15</f>
+        <v>8.865462063618551E-2</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="6"/>
-        <v>0.72714771658102328</v>
+        <f>W15/R15</f>
+        <v>9.9310028708595691E-2</v>
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="7"/>
@@ -5766,8 +6562,39 @@
         <f t="shared" si="10"/>
         <v>0.70482593317938669</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AH15">
+        <f t="shared" si="11"/>
+        <v>0.13657476526989817</v>
+      </c>
+      <c r="AI15">
+        <v>64</v>
+      </c>
+      <c r="AJ15">
+        <f>Y15/16</f>
+        <v>5.9802947363527554E-3</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" ref="AK15:AN17" si="24">Z15/16</f>
+        <v>5.9836327693470566E-3</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="24"/>
+        <v>6.3048699051014854E-3</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="24"/>
+        <v>5.5409137897615944E-3</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="24"/>
+        <v>6.2068767942872307E-3</v>
+      </c>
+      <c r="AO15">
+        <f>AH15/16</f>
+        <v>8.5359228293686359E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16">
         <v>1.227E-3</v>
       </c>
@@ -5798,71 +6625,78 @@
       <c r="J16">
         <v>1.8730000000000001E-3</v>
       </c>
+      <c r="K16">
+        <v>1.8370000000000001E-3</v>
+      </c>
       <c r="L16">
         <v>256</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:W16" si="16">AVERAGE(A60:A69)</f>
+        <f t="shared" ref="M16:W16" si="25">AVERAGE(A60:A69)</f>
         <v>0.10381700000000001</v>
       </c>
       <c r="N16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.11860359999999999</v>
       </c>
       <c r="O16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.12265009999999998</v>
       </c>
       <c r="P16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.1085787</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.11193900000000001</v>
       </c>
       <c r="R16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.11392739999999998</v>
       </c>
       <c r="S16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.1205692</v>
       </c>
       <c r="T16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.11817530000000001</v>
       </c>
       <c r="U16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.12013850000000001</v>
       </c>
       <c r="V16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>0.12115000000000001</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="25"/>
+        <v>0.1186348</v>
       </c>
       <c r="X16">
         <v>256</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="2"/>
-        <v>0.87532756172662562</v>
+        <f t="shared" ref="Y16:Y17" si="26">W16/N16</f>
+        <v>1.0002630611549734</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="3"/>
-        <v>0.84644855568809174</v>
+        <f t="shared" ref="Z16:Z17" si="27">W16/O16</f>
+        <v>0.96726215469861021</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="4"/>
-        <v>0.95614517396137555</v>
+        <f t="shared" ref="AA16:AA17" si="28">W16/P16</f>
+        <v>1.0926157708648196</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="5"/>
-        <v>0.92744262500111663</v>
+        <f t="shared" ref="AB16:AB17" si="29">W16/Q16</f>
+        <v>1.0598165072048169</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="6"/>
-        <v>0.91125576463607538</v>
+        <f t="shared" ref="AC16:AC17" si="30">W16/R16</f>
+        <v>1.0413192963237994</v>
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="7"/>
@@ -5880,8 +6714,39 @@
         <f t="shared" si="10"/>
         <v>0.85692942633099467</v>
       </c>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AH16">
+        <f t="shared" si="11"/>
+        <v>1.1427299960507431</v>
+      </c>
+      <c r="AI16">
+        <v>256</v>
+      </c>
+      <c r="AJ16">
+        <f>Y16/16</f>
+        <v>6.2516441322185839E-2</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="24"/>
+        <v>6.0453884668663138E-2</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="24"/>
+        <v>6.8288485679051228E-2</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="24"/>
+        <v>6.6238531700301057E-2</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="24"/>
+        <v>6.5082456020237461E-2</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" ref="AO16:AO17" si="31">AH16/16</f>
+        <v>7.1420624753171444E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17">
         <v>1.449E-3</v>
       </c>
@@ -5912,71 +6777,78 @@
       <c r="J17">
         <v>1.7780000000000001E-3</v>
       </c>
+      <c r="K17">
+        <v>1.6299999999999999E-3</v>
+      </c>
       <c r="L17">
         <v>1024</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:W17" si="17">AVERAGE(A94:A103)</f>
+        <f t="shared" ref="M17:W17" si="32">AVERAGE(A94:A103)</f>
         <v>3.0071905999999999</v>
       </c>
       <c r="N17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>3.0053086000000002</v>
       </c>
       <c r="O17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>2.7536072999999996</v>
       </c>
       <c r="P17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>2.5982981999999999</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>3.0131594000000002</v>
       </c>
       <c r="R17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>2.9301265999999999</v>
       </c>
       <c r="S17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>2.8422113999999996</v>
       </c>
       <c r="T17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>2.7252663999999998</v>
       </c>
       <c r="U17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>2.7909261999999995</v>
       </c>
       <c r="V17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>3.0164070000000001</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="32"/>
+        <v>5.739701300000001</v>
       </c>
       <c r="X17">
         <v>1024</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="2"/>
-        <v>1.0006262252069553</v>
+        <f t="shared" si="26"/>
+        <v>1.9098542159697012</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="3"/>
-        <v>1.0920913087352726</v>
+        <f t="shared" si="27"/>
+        <v>2.0844298676866528</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="4"/>
-        <v>1.1573693119596511</v>
+        <f t="shared" si="28"/>
+        <v>2.2090233137982396</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="5"/>
-        <v>0.99801908919919724</v>
+        <f t="shared" si="29"/>
+        <v>1.9048780824539189</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="6"/>
-        <v>1.0263005700845826</v>
+        <f t="shared" si="30"/>
+        <v>1.9588577845066493</v>
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="7"/>
@@ -5994,8 +6866,39 @@
         <f t="shared" si="10"/>
         <v>0.99694457677627712</v>
       </c>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="AH17">
+        <f t="shared" si="11"/>
+        <v>1.9086589656139525</v>
+      </c>
+      <c r="AI17">
+        <v>1024</v>
+      </c>
+      <c r="AJ17">
+        <f>Y17/16</f>
+        <v>0.11936588849810632</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="24"/>
+        <v>0.1302768667304158</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="24"/>
+        <v>0.13806395711238997</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="24"/>
+        <v>0.11905488015336993</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="24"/>
+        <v>0.12242861153166558</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="31"/>
+        <v>0.11929118535087203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18">
         <v>1.756E-3</v>
       </c>
@@ -6026,8 +6929,11 @@
       <c r="J18">
         <v>1.4989999999999999E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="K18">
+        <v>1.6310000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19">
         <v>1.3010000000000001E-3</v>
       </c>
@@ -6058,8 +6964,11 @@
       <c r="J19">
         <v>1.8469999999999999E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:33">
+      <c r="K19">
+        <v>1.81E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20">
         <v>1.6919999999999999E-3</v>
       </c>
@@ -6090,8 +6999,11 @@
       <c r="J20">
         <v>1.585E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="K20">
+        <v>1.6459999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>1.6770000000000001E-3</v>
       </c>
@@ -6122,44 +7034,47 @@
       <c r="J21">
         <v>1.498E-3</v>
       </c>
+      <c r="K21">
+        <v>1.58E-3</v>
+      </c>
       <c r="Y21">
         <f>SUM(Y3:Y5,Y9:Y11,Y15:Y17)</f>
-        <v>9.1089919784149966</v>
+        <v>11.526386501071116</v>
       </c>
       <c r="Z21">
-        <f t="shared" ref="Z21:AG21" si="18">SUM(Z3:Z5,Z9:Z11,Z15:Z17)</f>
-        <v>8.8533201118967604</v>
+        <f t="shared" ref="Z21:AG21" si="33">SUM(Z3:Z5,Z9:Z11,Z15:Z17)</f>
+        <v>11.166706488264952</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="18"/>
-        <v>9.0987699600522891</v>
+        <f t="shared" si="33"/>
+        <v>11.661694187471269</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="18"/>
-        <v>8.3755015739842591</v>
+        <f t="shared" si="33"/>
+        <v>10.57979937151412</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="18"/>
-        <v>9.2659654438878416</v>
+        <f t="shared" si="33"/>
+        <v>11.349048119288305</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>8.9159941819276387</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>8.809121469244328</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>8.5951331751991216</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>8.8517052762310886</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>1.7589999999999999E-3</v>
       </c>
@@ -6190,8 +7105,11 @@
       <c r="J22">
         <v>1.825E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="K22">
+        <v>1.7329999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>1.7830000000000001E-3</v>
       </c>
@@ -6222,8 +7140,11 @@
       <c r="J23">
         <v>1.534E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:33">
+      <c r="K23">
+        <v>1.5659999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>1.6999999999999999E-3</v>
       </c>
@@ -6254,8 +7175,11 @@
       <c r="J24">
         <v>1.5610000000000001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="K24">
+        <v>1.6789999999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -6286,8 +7210,11 @@
       <c r="J25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26">
         <v>1.2352E-2</v>
       </c>
@@ -6318,8 +7245,11 @@
       <c r="J26">
         <v>1.6871000000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="K26">
+        <v>1.521E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27">
         <v>1.1948E-2</v>
       </c>
@@ -6350,8 +7280,11 @@
       <c r="J27">
         <v>1.7163000000000001E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="K27">
+        <v>1.632E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28">
         <v>1.1838E-2</v>
       </c>
@@ -6382,8 +7315,11 @@
       <c r="J28">
         <v>1.7264000000000002E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="K28">
+        <v>1.5740000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29">
         <v>1.1598000000000001E-2</v>
       </c>
@@ -6414,8 +7350,11 @@
       <c r="J29">
         <v>1.7219000000000002E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="K29">
+        <v>1.64E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30">
         <v>1.1221999999999999E-2</v>
       </c>
@@ -6446,8 +7385,11 @@
       <c r="J30">
         <v>1.5647000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="K30">
+        <v>2.3389999999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31">
         <v>1.4076E-2</v>
       </c>
@@ -6478,8 +7420,11 @@
       <c r="J31">
         <v>1.7358999999999999E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="K31">
+        <v>1.487E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32">
         <v>1.1592999999999999E-2</v>
       </c>
@@ -6510,8 +7455,11 @@
       <c r="J32">
         <v>1.8055000000000002E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>1.573E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>1.2262E-2</v>
       </c>
@@ -6542,8 +7490,11 @@
       <c r="J33">
         <v>1.6291E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>1.4890000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>1.1683000000000001E-2</v>
       </c>
@@ -6574,8 +7525,11 @@
       <c r="J34">
         <v>1.7142999999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>1.5950000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>1.1991999999999999E-2</v>
       </c>
@@ -6606,8 +7560,11 @@
       <c r="J35">
         <v>1.8043E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>1.616E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -6638,8 +7595,11 @@
       <c r="J36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -6670,8 +7630,11 @@
       <c r="J37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>0.15334500000000001</v>
       </c>
@@ -6702,8 +7665,11 @@
       <c r="J38">
         <v>0.16877800000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0.10041600000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>0.17879100000000001</v>
       </c>
@@ -6734,8 +7700,11 @@
       <c r="J39">
         <v>0.141377</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>9.2644000000000004E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>0.17713999999999999</v>
       </c>
@@ -6766,8 +7735,11 @@
       <c r="J40">
         <v>0.14444100000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.118448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>0.16214799999999999</v>
       </c>
@@ -6798,8 +7770,11 @@
       <c r="J41">
         <v>0.14880499999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.110832</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>0.166217</v>
       </c>
@@ -6830,8 +7805,11 @@
       <c r="J42">
         <v>0.17305999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.14521899999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>0.17562800000000001</v>
       </c>
@@ -6862,8 +7840,11 @@
       <c r="J43">
         <v>0.14527399999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.119739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>0.17779700000000001</v>
       </c>
@@ -6894,8 +7875,11 @@
       <c r="J44">
         <v>0.16061500000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.119626</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>0.177785</v>
       </c>
@@ -6926,8 +7910,11 @@
       <c r="J45">
         <v>0.16070799999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.119155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>0.17563300000000001</v>
       </c>
@@ -6958,8 +7945,11 @@
       <c r="J46">
         <v>0.12413100000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.113036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>0.17431199999999999</v>
       </c>
@@ -6990,8 +7980,11 @@
       <c r="J47">
         <v>0.169652</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.112516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -7022,8 +8015,11 @@
       <c r="J48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>5.9949000000000002E-2</v>
       </c>
@@ -7054,8 +8050,11 @@
       <c r="J49">
         <v>6.4661999999999997E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.11715299999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>5.9965999999999998E-2</v>
       </c>
@@ -7086,8 +8085,11 @@
       <c r="J50">
         <v>5.7133000000000003E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.11647200000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>4.8563000000000002E-2</v>
       </c>
@@ -7118,8 +8120,11 @@
       <c r="J51">
         <v>3.8880999999999999E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.144896</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>4.2623000000000001E-2</v>
       </c>
@@ -7150,8 +8155,11 @@
       <c r="J52">
         <v>3.6305999999999998E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.143035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>6.1155000000000001E-2</v>
       </c>
@@ -7182,8 +8190,11 @@
       <c r="J53">
         <v>5.3289000000000003E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.116853</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>6.7534999999999998E-2</v>
       </c>
@@ -7214,8 +8225,11 @@
       <c r="J54">
         <v>3.7435000000000003E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>9.2929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>3.8482000000000002E-2</v>
       </c>
@@ -7246,8 +8260,11 @@
       <c r="J55">
         <v>4.3596000000000003E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.119607</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>3.9646000000000001E-2</v>
       </c>
@@ -7278,8 +8295,11 @@
       <c r="J56">
         <v>4.2389999999999997E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>9.3647999999999995E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>5.8541999999999997E-2</v>
       </c>
@@ -7310,8 +8330,11 @@
       <c r="J57">
         <v>3.7675E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>9.214E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>3.7637999999999998E-2</v>
       </c>
@@ -7342,8 +8365,11 @@
       <c r="J58">
         <v>3.8117999999999999E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>0.113024</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7374,8 +8400,11 @@
       <c r="J59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>0.104037</v>
       </c>
@@ -7406,8 +8435,11 @@
       <c r="J60">
         <v>0.124999</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>0.109193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>0.116481</v>
       </c>
@@ -7438,8 +8470,11 @@
       <c r="J61">
         <v>0.11296100000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>0.10997899999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>9.1310000000000002E-2</v>
       </c>
@@ -7470,8 +8505,11 @@
       <c r="J62">
         <v>0.12891</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>0.117969</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>0.103655</v>
       </c>
@@ -7502,8 +8540,11 @@
       <c r="J63">
         <v>0.104931</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>0.141899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>8.6669999999999997E-2</v>
       </c>
@@ -7534,8 +8575,11 @@
       <c r="J64">
         <v>0.108943</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>0.11899899999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>0.132661</v>
       </c>
@@ -7566,8 +8610,11 @@
       <c r="J65">
         <v>0.12961500000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>0.120463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>9.1949000000000003E-2</v>
       </c>
@@ -7598,8 +8645,11 @@
       <c r="J66">
         <v>0.115256</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>0.116617</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>0.110153</v>
       </c>
@@ -7630,8 +8680,11 @@
       <c r="J67">
         <v>0.13564399999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>9.2763999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>0.11773500000000001</v>
       </c>
@@ -7662,8 +8715,11 @@
       <c r="J68">
         <v>0.127723</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>0.14677499999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>8.3518999999999996E-2</v>
       </c>
@@ -7694,8 +8750,11 @@
       <c r="J69">
         <v>0.122518</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>0.11169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -7726,8 +8785,11 @@
       <c r="J70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -7758,8 +8820,11 @@
       <c r="J71" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>9.4629379999999994</v>
       </c>
@@ -7790,8 +8855,11 @@
       <c r="J72">
         <v>7.7106579999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>6.6528790000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>10.401951</v>
       </c>
@@ -7822,8 +8890,11 @@
       <c r="J73">
         <v>7.2340059999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>6.204771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>7.2039809999999997</v>
       </c>
@@ -7854,8 +8925,11 @@
       <c r="J74">
         <v>5.8606480000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>4.7658379999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>8.8833959999999994</v>
       </c>
@@ -7886,8 +8960,11 @@
       <c r="J75">
         <v>5.8011910000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>6.1106059999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>7.5624589999999996</v>
       </c>
@@ -7918,8 +8995,11 @@
       <c r="J76">
         <v>8.4315630000000006</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>6.109572</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>5.7605180000000002</v>
       </c>
@@ -7950,8 +9030,11 @@
       <c r="J77">
         <v>6.1583750000000004</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>6.388757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>10.359913000000001</v>
       </c>
@@ -7982,8 +9065,11 @@
       <c r="J78">
         <v>8.2019939999999991</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>7.4798939999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>7.543812</v>
       </c>
@@ -8014,8 +9100,11 @@
       <c r="J79">
         <v>5.8058160000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>6.5524760000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>8.347194</v>
       </c>
@@ -8046,8 +9135,11 @@
       <c r="J80">
         <v>7.7514010000000004</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>6.3001829999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>5.8874339999999998</v>
       </c>
@@ -8078,8 +9170,11 @@
       <c r="J81">
         <v>8.268535</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>5.156676</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -8110,8 +9205,11 @@
       <c r="J82" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>2.77149</v>
       </c>
@@ -8142,8 +9240,11 @@
       <c r="J83">
         <v>2.2562950000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>4.8939789999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>2.797275</v>
       </c>
@@ -8174,8 +9275,11 @@
       <c r="J84">
         <v>2.5737209999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>6.4299989999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>2.7075960000000001</v>
       </c>
@@ -8206,8 +9310,11 @@
       <c r="J85">
         <v>2.5878269999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>5.9604119999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>2.7561580000000001</v>
       </c>
@@ -8238,8 +9345,11 @@
       <c r="J86">
         <v>2.3678309999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>6.7825639999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>2.5030130000000002</v>
       </c>
@@ -8270,8 +9380,11 @@
       <c r="J87">
         <v>2.5598540000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>5.4247560000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>2.6651030000000002</v>
       </c>
@@ -8302,8 +9415,11 @@
       <c r="J88">
         <v>2.6709860000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>4.6707689999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>2.8938009999999998</v>
       </c>
@@ -8334,8 +9450,11 @@
       <c r="J89">
         <v>2.3869690000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>7.1999199999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>2.757266</v>
       </c>
@@ -8366,8 +9485,11 @@
       <c r="J90">
         <v>2.5336940000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>5.2998950000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>2.6977880000000001</v>
       </c>
@@ -8398,8 +9520,11 @@
       <c r="J91">
         <v>2.5059070000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>6.104641</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>2.5558019999999999</v>
       </c>
@@ -8430,8 +9555,11 @@
       <c r="J92">
         <v>2.5847690000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>6.8536950000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -8462,8 +9590,11 @@
       <c r="J93" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>3.1181920000000001</v>
       </c>
@@ -8494,8 +9625,11 @@
       <c r="J94">
         <v>2.7530190000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>4.6170150000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>3.0203709999999999</v>
       </c>
@@ -8526,8 +9660,11 @@
       <c r="J95">
         <v>2.9375490000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>6.7175409999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>2.9346719999999999</v>
       </c>
@@ -8558,8 +9695,11 @@
       <c r="J96">
         <v>2.9373849999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>5.5588749999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>2.8333629999999999</v>
       </c>
@@ -8590,8 +9730,11 @@
       <c r="J97">
         <v>3.075469</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>4.6316740000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>3.0932050000000002</v>
       </c>
@@ -8622,8 +9765,11 @@
       <c r="J98">
         <v>2.9727999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>5.868474</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>2.8948100000000001</v>
       </c>
@@ -8654,8 +9800,11 @@
       <c r="J99">
         <v>3.0966619999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>5.7993009999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>3.2220070000000001</v>
       </c>
@@ -8686,8 +9835,11 @@
       <c r="J100">
         <v>3.1612740000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>6.5328429999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>2.8850699999999998</v>
       </c>
@@ -8718,8 +9870,11 @@
       <c r="J101">
         <v>3.04454</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>6.7048129999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>3.0083329999999999</v>
       </c>
@@ -8750,8 +9905,11 @@
       <c r="J102">
         <v>3.1065040000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>5.3025840000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>3.0618829999999999</v>
       </c>
@@ -8781,6 +9939,9 @@
       </c>
       <c r="J103">
         <v>3.0788679999999999</v>
+      </c>
+      <c r="K103">
+        <v>5.6638929999999998</v>
       </c>
     </row>
   </sheetData>
